--- a/com.MIT.HMS_DJ/TestData/MIT.HMS.TestData.xlsx
+++ b/com.MIT.HMS_DJ/TestData/MIT.HMS.TestData.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b11a09d3e7a686f4/Desktop/Tek Pyramid/HMS Project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{020B06A1-3094-40AF-8338-86FFA50E6E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7BB93B8-7E97-4086-96F4-3CAEF5B1ECC7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C001EE60-D936-4E3D-A669-9C53C83629CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4248" windowWidth="23040" windowHeight="9432" activeTab="4" xr2:uid="{F69EA002-1320-4A12-9798-6594050B9FA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F69EA002-1320-4A12-9798-6594050B9FA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Doctor" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,8 @@
     <sheet name="Home" sheetId="5" r:id="rId4"/>
     <sheet name="Admin" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:Q12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -181,10 +177,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED1903A-961D-4A48-8369-C3A7739A1ECB}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -714,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E672B7-1A84-46CA-98D6-BE3CC18CE8DF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
